--- a/natmiOut/OldD2/LR-pairs_lrc2p/Edn1-Ednra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Edn1-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Edn1</t>
   </si>
   <si>
     <t>Ednra</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.5362054949509</v>
+        <v>15.3250705</v>
       </c>
       <c r="H2">
-        <v>14.5362054949509</v>
+        <v>30.650141</v>
       </c>
       <c r="I2">
-        <v>0.5575349071738881</v>
+        <v>0.5468844173754854</v>
       </c>
       <c r="J2">
-        <v>0.5575349071738881</v>
+        <v>0.4467829378564526</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.37886691114117</v>
+        <v>1.619567</v>
       </c>
       <c r="N2">
-        <v>1.37886691114117</v>
+        <v>3.239134</v>
       </c>
       <c r="O2">
-        <v>0.04945559259351245</v>
+        <v>0.05049533395284948</v>
       </c>
       <c r="P2">
-        <v>0.04945559259351245</v>
+        <v>0.04454651624622217</v>
       </c>
       <c r="Q2">
-        <v>20.04349277053625</v>
+        <v>24.8199784544735</v>
       </c>
       <c r="R2">
-        <v>20.04349277053625</v>
+        <v>99.279913817894</v>
       </c>
       <c r="S2">
-        <v>0.02757321922585359</v>
+        <v>0.02761511128898466</v>
       </c>
       <c r="T2">
-        <v>0.02757321922585359</v>
+        <v>0.01990262339975733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.5362054949509</v>
+        <v>15.3250705</v>
       </c>
       <c r="H3">
-        <v>14.5362054949509</v>
+        <v>30.650141</v>
       </c>
       <c r="I3">
-        <v>0.5575349071738881</v>
+        <v>0.5468844173754854</v>
       </c>
       <c r="J3">
-        <v>0.5575349071738881</v>
+        <v>0.4467829378564526</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.91913315115517</v>
+        <v>3.351459333333333</v>
       </c>
       <c r="N3">
-        <v>2.91913315115517</v>
+        <v>10.054378</v>
       </c>
       <c r="O3">
-        <v>0.1047000683555933</v>
+        <v>0.1044927800245751</v>
       </c>
       <c r="P3">
-        <v>0.1047000683555933</v>
+        <v>0.1382738450841054</v>
       </c>
       <c r="Q3">
-        <v>42.43311935231512</v>
+        <v>51.36135056121633</v>
       </c>
       <c r="R3">
-        <v>42.43311935231512</v>
+        <v>308.168103367298</v>
       </c>
       <c r="S3">
-        <v>0.05837394289173545</v>
+        <v>0.0571454731236845</v>
       </c>
       <c r="T3">
-        <v>0.05837394289173545</v>
+        <v>0.06177839473538462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.5362054949509</v>
+        <v>15.3250705</v>
       </c>
       <c r="H4">
-        <v>14.5362054949509</v>
+        <v>30.650141</v>
       </c>
       <c r="I4">
-        <v>0.5575349071738881</v>
+        <v>0.5468844173754854</v>
       </c>
       <c r="J4">
-        <v>0.5575349071738881</v>
+        <v>0.4467829378564526</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.97081094566427</v>
+        <v>0.09988799999999999</v>
       </c>
       <c r="N4">
-        <v>2.97081094566427</v>
+        <v>0.299664</v>
       </c>
       <c r="O4">
-        <v>0.1065535873070765</v>
+        <v>0.003114337299958711</v>
       </c>
       <c r="P4">
-        <v>0.1065535873070765</v>
+        <v>0.004121159311225754</v>
       </c>
       <c r="Q4">
-        <v>43.18431839282525</v>
+        <v>1.530790642104</v>
       </c>
       <c r="R4">
-        <v>43.18431839282525</v>
+        <v>9.184743852623999</v>
       </c>
       <c r="S4">
-        <v>0.0594073444082957</v>
+        <v>0.001703182539798662</v>
       </c>
       <c r="T4">
-        <v>0.0594073444082957</v>
+        <v>0.001841263664443917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.5362054949509</v>
+        <v>15.3250705</v>
       </c>
       <c r="H5">
-        <v>14.5362054949509</v>
+        <v>30.650141</v>
       </c>
       <c r="I5">
-        <v>0.5575349071738881</v>
+        <v>0.5468844173754854</v>
       </c>
       <c r="J5">
-        <v>0.5575349071738881</v>
+        <v>0.4467829378564526</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>20.6120986896425</v>
+        <v>0.03514233333333334</v>
       </c>
       <c r="N5">
-        <v>20.6120986896425</v>
+        <v>0.105427</v>
       </c>
       <c r="O5">
-        <v>0.7392907517438176</v>
+        <v>0.001095677954384734</v>
       </c>
       <c r="P5">
-        <v>0.7392907517438176</v>
+        <v>0.00144989542522491</v>
       </c>
       <c r="Q5">
-        <v>299.6217022348516</v>
+        <v>0.5385587358678333</v>
       </c>
       <c r="R5">
-        <v>299.6217022348516</v>
+        <v>3.231352415207</v>
       </c>
       <c r="S5">
-        <v>0.4121804006480033</v>
+        <v>0.0005992091997148592</v>
       </c>
       <c r="T5">
-        <v>0.4121804006480033</v>
+        <v>0.0006477885376666159</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.519845018447024</v>
+        <v>15.3250705</v>
       </c>
       <c r="H6">
-        <v>0.519845018447024</v>
+        <v>30.650141</v>
       </c>
       <c r="I6">
-        <v>0.01993861081596168</v>
+        <v>0.5468844173754854</v>
       </c>
       <c r="J6">
-        <v>0.01993861081596168</v>
+        <v>0.4467829378564526</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.37886691114117</v>
+        <v>5.079835999999999</v>
       </c>
       <c r="N6">
-        <v>1.37886691114117</v>
+        <v>15.239508</v>
       </c>
       <c r="O6">
-        <v>0.04945559259351245</v>
+        <v>0.158380613611976</v>
       </c>
       <c r="P6">
-        <v>0.04945559259351245</v>
+        <v>0.2095828671201724</v>
       </c>
       <c r="Q6">
-        <v>0.7167970948581726</v>
+        <v>77.84884482843799</v>
       </c>
       <c r="R6">
-        <v>0.7167970948581726</v>
+        <v>467.0930689706279</v>
       </c>
       <c r="S6">
-        <v>0.0009860758133948019</v>
+        <v>0.08661588959875735</v>
       </c>
       <c r="T6">
-        <v>0.0009860758133948019</v>
+        <v>0.09363804909632915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.519845018447024</v>
+        <v>15.3250705</v>
       </c>
       <c r="H7">
-        <v>0.519845018447024</v>
+        <v>30.650141</v>
       </c>
       <c r="I7">
-        <v>0.01993861081596168</v>
+        <v>0.5468844173754854</v>
       </c>
       <c r="J7">
-        <v>0.01993861081596168</v>
+        <v>0.4467829378564526</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.91913315115517</v>
+        <v>21.8877045</v>
       </c>
       <c r="N7">
-        <v>2.91913315115517</v>
+        <v>43.775409</v>
       </c>
       <c r="O7">
-        <v>0.1047000683555933</v>
+        <v>0.6824212571562562</v>
       </c>
       <c r="P7">
-        <v>0.1047000683555933</v>
+        <v>0.6020257168130494</v>
       </c>
       <c r="Q7">
-        <v>1.517496826811579</v>
+        <v>335.4306145456672</v>
       </c>
       <c r="R7">
-        <v>1.517496826811579</v>
+        <v>1341.722458182669</v>
       </c>
       <c r="S7">
-        <v>0.00208757391534676</v>
+        <v>0.3732055516245455</v>
       </c>
       <c r="T7">
-        <v>0.00208757391534676</v>
+        <v>0.268974818422871</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.519845018447024</v>
+        <v>0.644686</v>
       </c>
       <c r="H8">
-        <v>0.519845018447024</v>
+        <v>1.934058</v>
       </c>
       <c r="I8">
-        <v>0.01993861081596168</v>
+        <v>0.02300601015180532</v>
       </c>
       <c r="J8">
-        <v>0.01993861081596168</v>
+        <v>0.02819250049207848</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.97081094566427</v>
+        <v>1.619567</v>
       </c>
       <c r="N8">
-        <v>2.97081094566427</v>
+        <v>3.239134</v>
       </c>
       <c r="O8">
-        <v>0.1065535873070765</v>
+        <v>0.05049533395284948</v>
       </c>
       <c r="P8">
-        <v>0.1065535873070765</v>
+        <v>0.04454651624622217</v>
       </c>
       <c r="Q8">
-        <v>1.544361270851463</v>
+        <v>1.044112170962</v>
       </c>
       <c r="R8">
-        <v>1.544361270851463</v>
+        <v>6.264673025772</v>
       </c>
       <c r="S8">
-        <v>0.002124530508360394</v>
+        <v>0.001161696165538055</v>
       </c>
       <c r="T8">
-        <v>0.002124530508360394</v>
+        <v>0.001255877681192001</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.519845018447024</v>
+        <v>0.644686</v>
       </c>
       <c r="H9">
-        <v>0.519845018447024</v>
+        <v>1.934058</v>
       </c>
       <c r="I9">
-        <v>0.01993861081596168</v>
+        <v>0.02300601015180532</v>
       </c>
       <c r="J9">
-        <v>0.01993861081596168</v>
+        <v>0.02819250049207848</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.6120986896425</v>
+        <v>3.351459333333333</v>
       </c>
       <c r="N9">
-        <v>20.6120986896425</v>
+        <v>10.054378</v>
       </c>
       <c r="O9">
-        <v>0.7392907517438176</v>
+        <v>0.1044927800245751</v>
       </c>
       <c r="P9">
-        <v>0.7392907517438176</v>
+        <v>0.1382738450841054</v>
       </c>
       <c r="Q9">
-        <v>10.71509682354909</v>
+        <v>2.160638911769333</v>
       </c>
       <c r="R9">
-        <v>10.71509682354909</v>
+        <v>19.445750205924</v>
       </c>
       <c r="S9">
-        <v>0.01474043057885973</v>
+        <v>0.002403961958035734</v>
       </c>
       <c r="T9">
-        <v>0.01474043057885973</v>
+        <v>0.003898285445575226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.0162282047797</v>
+        <v>0.644686</v>
       </c>
       <c r="H10">
-        <v>11.0162282047797</v>
+        <v>1.934058</v>
       </c>
       <c r="I10">
-        <v>0.4225264820101502</v>
+        <v>0.02300601015180532</v>
       </c>
       <c r="J10">
-        <v>0.4225264820101502</v>
+        <v>0.02819250049207848</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.37886691114117</v>
+        <v>0.09988799999999999</v>
       </c>
       <c r="N10">
-        <v>1.37886691114117</v>
+        <v>0.299664</v>
       </c>
       <c r="O10">
-        <v>0.04945559259351245</v>
+        <v>0.003114337299958711</v>
       </c>
       <c r="P10">
-        <v>0.04945559259351245</v>
+        <v>0.004121159311225754</v>
       </c>
       <c r="Q10">
-        <v>15.18991255715082</v>
+        <v>0.064396395168</v>
       </c>
       <c r="R10">
-        <v>15.18991255715082</v>
+        <v>0.5795675565119999</v>
       </c>
       <c r="S10">
-        <v>0.02089629755426406</v>
+        <v>7.164847553899607E-05</v>
       </c>
       <c r="T10">
-        <v>0.02089629755426406</v>
+        <v>0.0001161857859096659</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.0162282047797</v>
+        <v>0.644686</v>
       </c>
       <c r="H11">
-        <v>11.0162282047797</v>
+        <v>1.934058</v>
       </c>
       <c r="I11">
-        <v>0.4225264820101502</v>
+        <v>0.02300601015180532</v>
       </c>
       <c r="J11">
-        <v>0.4225264820101502</v>
+        <v>0.02819250049207848</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.91913315115517</v>
+        <v>0.03514233333333334</v>
       </c>
       <c r="N11">
-        <v>2.91913315115517</v>
+        <v>0.105427</v>
       </c>
       <c r="O11">
-        <v>0.1047000683555933</v>
+        <v>0.001095677954384734</v>
       </c>
       <c r="P11">
-        <v>0.1047000683555933</v>
+        <v>0.00144989542522491</v>
       </c>
       <c r="Q11">
-        <v>32.15783695326303</v>
+        <v>0.02265577030733333</v>
       </c>
       <c r="R11">
-        <v>32.15783695326303</v>
+        <v>0.203901932766</v>
       </c>
       <c r="S11">
-        <v>0.04423855154851109</v>
+        <v>2.520717814168448E-05</v>
       </c>
       <c r="T11">
-        <v>0.04423855154851109</v>
+        <v>4.087617748911563E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.0162282047797</v>
+        <v>0.644686</v>
       </c>
       <c r="H12">
-        <v>11.0162282047797</v>
+        <v>1.934058</v>
       </c>
       <c r="I12">
-        <v>0.4225264820101502</v>
+        <v>0.02300601015180532</v>
       </c>
       <c r="J12">
-        <v>0.4225264820101502</v>
+        <v>0.02819250049207848</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.97081094566427</v>
+        <v>5.079835999999999</v>
       </c>
       <c r="N12">
-        <v>2.97081094566427</v>
+        <v>15.239508</v>
       </c>
       <c r="O12">
-        <v>0.1065535873070765</v>
+        <v>0.158380613611976</v>
       </c>
       <c r="P12">
-        <v>0.1065535873070765</v>
+        <v>0.2095828671201724</v>
       </c>
       <c r="Q12">
-        <v>32.72713133069499</v>
+        <v>3.274899151495999</v>
       </c>
       <c r="R12">
-        <v>32.72713133069499</v>
+        <v>29.474092363464</v>
       </c>
       <c r="S12">
-        <v>0.04502171239042044</v>
+        <v>0.003643706004606275</v>
       </c>
       <c r="T12">
-        <v>0.04502171239042044</v>
+        <v>0.005908665084416681</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.0162282047797</v>
+        <v>0.644686</v>
       </c>
       <c r="H13">
-        <v>11.0162282047797</v>
+        <v>1.934058</v>
       </c>
       <c r="I13">
-        <v>0.4225264820101502</v>
+        <v>0.02300601015180532</v>
       </c>
       <c r="J13">
-        <v>0.4225264820101502</v>
+        <v>0.02819250049207848</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.6120986896425</v>
+        <v>21.8877045</v>
       </c>
       <c r="N13">
-        <v>20.6120986896425</v>
+        <v>43.775409</v>
       </c>
       <c r="O13">
-        <v>0.7392907517438176</v>
+        <v>0.6824212571562562</v>
       </c>
       <c r="P13">
-        <v>0.7392907517438176</v>
+        <v>0.6020257168130494</v>
       </c>
       <c r="Q13">
-        <v>227.0675829445424</v>
+        <v>14.110696663287</v>
       </c>
       <c r="R13">
-        <v>227.0675829445424</v>
+        <v>84.66417997972198</v>
       </c>
       <c r="S13">
-        <v>0.3123699205169546</v>
+        <v>0.01569979036994458</v>
       </c>
       <c r="T13">
-        <v>0.3123699205169546</v>
+        <v>0.0169726103174958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05663066666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.169892</v>
+      </c>
+      <c r="I14">
+        <v>0.002020899619716942</v>
+      </c>
+      <c r="J14">
+        <v>0.002476492583779906</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.619567</v>
+      </c>
+      <c r="N14">
+        <v>3.239134</v>
+      </c>
+      <c r="O14">
+        <v>0.05049533395284948</v>
+      </c>
+      <c r="P14">
+        <v>0.04454651624622217</v>
+      </c>
+      <c r="Q14">
+        <v>0.09171715892133332</v>
+      </c>
+      <c r="R14">
+        <v>0.550302953528</v>
+      </c>
+      <c r="S14">
+        <v>0.0001020460011827935</v>
+      </c>
+      <c r="T14">
+        <v>0.0001103191171170003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05663066666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.169892</v>
+      </c>
+      <c r="I15">
+        <v>0.002020899619716942</v>
+      </c>
+      <c r="J15">
+        <v>0.002476492583779906</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.351459333333333</v>
+      </c>
+      <c r="N15">
+        <v>10.054378</v>
+      </c>
+      <c r="O15">
+        <v>0.1044927800245751</v>
+      </c>
+      <c r="P15">
+        <v>0.1382738450841054</v>
+      </c>
+      <c r="Q15">
+        <v>0.1897953763528889</v>
+      </c>
+      <c r="R15">
+        <v>1.708158387176</v>
+      </c>
+      <c r="S15">
+        <v>0.0002111694194148298</v>
+      </c>
+      <c r="T15">
+        <v>0.0003424341518815187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05663066666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.169892</v>
+      </c>
+      <c r="I16">
+        <v>0.002020899619716942</v>
+      </c>
+      <c r="J16">
+        <v>0.002476492583779906</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.09988799999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.299664</v>
+      </c>
+      <c r="O16">
+        <v>0.003114337299958711</v>
+      </c>
+      <c r="P16">
+        <v>0.004121159311225754</v>
+      </c>
+      <c r="Q16">
+        <v>0.005656724031999999</v>
+      </c>
+      <c r="R16">
+        <v>0.05091051628799999</v>
+      </c>
+      <c r="S16">
+        <v>6.293763065156846E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.020602047082609E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05663066666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.169892</v>
+      </c>
+      <c r="I17">
+        <v>0.002020899619716942</v>
+      </c>
+      <c r="J17">
+        <v>0.002476492583779906</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03514233333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.105427</v>
+      </c>
+      <c r="O17">
+        <v>0.001095677954384734</v>
+      </c>
+      <c r="P17">
+        <v>0.00144989542522491</v>
+      </c>
+      <c r="Q17">
+        <v>0.001990133764888889</v>
+      </c>
+      <c r="R17">
+        <v>0.017911203884</v>
+      </c>
+      <c r="S17">
+        <v>2.214255161348347E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.590655267825904E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05663066666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.169892</v>
+      </c>
+      <c r="I18">
+        <v>0.002020899619716942</v>
+      </c>
+      <c r="J18">
+        <v>0.002476492583779906</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.079835999999999</v>
+      </c>
+      <c r="N18">
+        <v>15.239508</v>
+      </c>
+      <c r="O18">
+        <v>0.158380613611976</v>
+      </c>
+      <c r="P18">
+        <v>0.2095828671201724</v>
+      </c>
+      <c r="Q18">
+        <v>0.2876744992373333</v>
+      </c>
+      <c r="R18">
+        <v>2.589070493136</v>
+      </c>
+      <c r="S18">
+        <v>0.0003200713218189782</v>
+      </c>
+      <c r="T18">
+        <v>0.0005190304161104365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05663066666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.169892</v>
+      </c>
+      <c r="I19">
+        <v>0.002020899619716942</v>
+      </c>
+      <c r="J19">
+        <v>0.002476492583779906</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.8877045</v>
+      </c>
+      <c r="N19">
+        <v>43.775409</v>
+      </c>
+      <c r="O19">
+        <v>0.6824212571562562</v>
+      </c>
+      <c r="P19">
+        <v>0.6020257168130494</v>
+      </c>
+      <c r="Q19">
+        <v>1.239515297638</v>
+      </c>
+      <c r="R19">
+        <v>7.437091785827999</v>
+      </c>
+      <c r="S19">
+        <v>0.001379104859073836</v>
+      </c>
+      <c r="T19">
+        <v>0.001490912222932299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2795713333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.838714</v>
+      </c>
+      <c r="I20">
+        <v>0.009976672260325826</v>
+      </c>
+      <c r="J20">
+        <v>0.01222581993803346</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.619567</v>
+      </c>
+      <c r="N20">
+        <v>3.239134</v>
+      </c>
+      <c r="O20">
+        <v>0.05049533395284948</v>
+      </c>
+      <c r="P20">
+        <v>0.04454651624622217</v>
+      </c>
+      <c r="Q20">
+        <v>0.4527845056126666</v>
+      </c>
+      <c r="R20">
+        <v>2.716707033676</v>
+      </c>
+      <c r="S20">
+        <v>0.0005037753975232822</v>
+      </c>
+      <c r="T20">
+        <v>0.0005446176864929943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2795713333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.838714</v>
+      </c>
+      <c r="I21">
+        <v>0.009976672260325826</v>
+      </c>
+      <c r="J21">
+        <v>0.01222581993803346</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.351459333333333</v>
+      </c>
+      <c r="N21">
+        <v>10.054378</v>
+      </c>
+      <c r="O21">
+        <v>0.1044927800245751</v>
+      </c>
+      <c r="P21">
+        <v>0.1382738450841054</v>
+      </c>
+      <c r="Q21">
+        <v>0.9369719544324444</v>
+      </c>
+      <c r="R21">
+        <v>8.432747589891999</v>
+      </c>
+      <c r="S21">
+        <v>0.001042490219875507</v>
+      </c>
+      <c r="T21">
+        <v>0.001690511132137806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2795713333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.838714</v>
+      </c>
+      <c r="I22">
+        <v>0.009976672260325826</v>
+      </c>
+      <c r="J22">
+        <v>0.01222581993803346</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.09988799999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.299664</v>
+      </c>
+      <c r="O22">
+        <v>0.003114337299958711</v>
+      </c>
+      <c r="P22">
+        <v>0.004121159311225754</v>
+      </c>
+      <c r="Q22">
+        <v>0.027925821344</v>
+      </c>
+      <c r="R22">
+        <v>0.251332392096</v>
+      </c>
+      <c r="S22">
+        <v>3.10707225497961E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.038455167499605E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2795713333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.838714</v>
+      </c>
+      <c r="I23">
+        <v>0.009976672260325826</v>
+      </c>
+      <c r="J23">
+        <v>0.01222581993803346</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03514233333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.105427</v>
+      </c>
+      <c r="O23">
+        <v>0.001095677954384734</v>
+      </c>
+      <c r="P23">
+        <v>0.00144989542522491</v>
+      </c>
+      <c r="Q23">
+        <v>0.009824788986444446</v>
+      </c>
+      <c r="R23">
+        <v>0.088423100878</v>
+      </c>
+      <c r="S23">
+        <v>1.093121985376072E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.772616039777821E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2795713333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.838714</v>
+      </c>
+      <c r="I24">
+        <v>0.009976672260325826</v>
+      </c>
+      <c r="J24">
+        <v>0.01222581993803346</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.079835999999999</v>
+      </c>
+      <c r="N24">
+        <v>15.239508</v>
+      </c>
+      <c r="O24">
+        <v>0.158380613611976</v>
+      </c>
+      <c r="P24">
+        <v>0.2095828671201724</v>
+      </c>
+      <c r="Q24">
+        <v>1.420176523634667</v>
+      </c>
+      <c r="R24">
+        <v>12.781588712712</v>
+      </c>
+      <c r="S24">
+        <v>0.001580111474395984</v>
+      </c>
+      <c r="T24">
+        <v>0.002562322395508021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2795713333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.838714</v>
+      </c>
+      <c r="I25">
+        <v>0.009976672260325826</v>
+      </c>
+      <c r="J25">
+        <v>0.01222581993803346</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.8877045</v>
+      </c>
+      <c r="N25">
+        <v>43.775409</v>
+      </c>
+      <c r="O25">
+        <v>0.6824212571562562</v>
+      </c>
+      <c r="P25">
+        <v>0.6020257168130494</v>
+      </c>
+      <c r="Q25">
+        <v>6.119174730670999</v>
+      </c>
+      <c r="R25">
+        <v>36.715048384026</v>
+      </c>
+      <c r="S25">
+        <v>0.006808293226127499</v>
+      </c>
+      <c r="T25">
+        <v>0.007360258011821864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.575966</v>
+      </c>
+      <c r="H26">
+        <v>34.727898</v>
+      </c>
+      <c r="I26">
+        <v>0.4130953538822825</v>
+      </c>
+      <c r="J26">
+        <v>0.5062238471927167</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.619567</v>
+      </c>
+      <c r="N26">
+        <v>3.239134</v>
+      </c>
+      <c r="O26">
+        <v>0.05049533395284948</v>
+      </c>
+      <c r="P26">
+        <v>0.04454651624622217</v>
+      </c>
+      <c r="Q26">
+        <v>18.748052526722</v>
+      </c>
+      <c r="R26">
+        <v>112.488315160332</v>
+      </c>
+      <c r="S26">
+        <v>0.02085938784865639</v>
+      </c>
+      <c r="T26">
+        <v>0.02255050883319544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11.575966</v>
+      </c>
+      <c r="H27">
+        <v>34.727898</v>
+      </c>
+      <c r="I27">
+        <v>0.4130953538822825</v>
+      </c>
+      <c r="J27">
+        <v>0.5062238471927167</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.351459333333333</v>
+      </c>
+      <c r="N27">
+        <v>10.054378</v>
+      </c>
+      <c r="O27">
+        <v>0.1044927800245751</v>
+      </c>
+      <c r="P27">
+        <v>0.1382738450841054</v>
+      </c>
+      <c r="Q27">
+        <v>38.79637929304933</v>
+      </c>
+      <c r="R27">
+        <v>349.1674136374439</v>
+      </c>
+      <c r="S27">
+        <v>0.04316548194239533</v>
+      </c>
+      <c r="T27">
+        <v>0.06999751782460557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>11.575966</v>
+      </c>
+      <c r="H28">
+        <v>34.727898</v>
+      </c>
+      <c r="I28">
+        <v>0.4130953538822825</v>
+      </c>
+      <c r="J28">
+        <v>0.5062238471927167</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.09988799999999999</v>
+      </c>
+      <c r="N28">
+        <v>0.299664</v>
+      </c>
+      <c r="O28">
+        <v>0.003114337299958711</v>
+      </c>
+      <c r="P28">
+        <v>0.004121159311225754</v>
+      </c>
+      <c r="Q28">
+        <v>1.156300091808</v>
+      </c>
+      <c r="R28">
+        <v>10.406700826272</v>
+      </c>
+      <c r="S28">
+        <v>0.001286518269035236</v>
+      </c>
+      <c r="T28">
+        <v>0.002086229121422788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>11.575966</v>
+      </c>
+      <c r="H29">
+        <v>34.727898</v>
+      </c>
+      <c r="I29">
+        <v>0.4130953538822825</v>
+      </c>
+      <c r="J29">
+        <v>0.5062238471927167</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03514233333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.105427</v>
+      </c>
+      <c r="O29">
+        <v>0.001095677954384734</v>
+      </c>
+      <c r="P29">
+        <v>0.00144989542522491</v>
+      </c>
+      <c r="Q29">
+        <v>0.4068064558273334</v>
+      </c>
+      <c r="R29">
+        <v>3.661258102446</v>
+      </c>
+      <c r="S29">
+        <v>0.0004526194723075773</v>
+      </c>
+      <c r="T29">
+        <v>0.000733971640184474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11.575966</v>
+      </c>
+      <c r="H30">
+        <v>34.727898</v>
+      </c>
+      <c r="I30">
+        <v>0.4130953538822825</v>
+      </c>
+      <c r="J30">
+        <v>0.5062238471927167</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.079835999999999</v>
+      </c>
+      <c r="N30">
+        <v>15.239508</v>
+      </c>
+      <c r="O30">
+        <v>0.158380613611976</v>
+      </c>
+      <c r="P30">
+        <v>0.2095828671201724</v>
+      </c>
+      <c r="Q30">
+        <v>58.80400882157599</v>
+      </c>
+      <c r="R30">
+        <v>529.2360793941839</v>
+      </c>
+      <c r="S30">
+        <v>0.06542629562813226</v>
+      </c>
+      <c r="T30">
+        <v>0.1060958452992536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.575966</v>
+      </c>
+      <c r="H31">
+        <v>34.727898</v>
+      </c>
+      <c r="I31">
+        <v>0.4130953538822825</v>
+      </c>
+      <c r="J31">
+        <v>0.5062238471927167</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>21.8877045</v>
+      </c>
+      <c r="N31">
+        <v>43.775409</v>
+      </c>
+      <c r="O31">
+        <v>0.6824212571562562</v>
+      </c>
+      <c r="P31">
+        <v>0.6020257168130494</v>
+      </c>
+      <c r="Q31">
+        <v>253.371323110047</v>
+      </c>
+      <c r="R31">
+        <v>1520.227938660282</v>
+      </c>
+      <c r="S31">
+        <v>0.2819050507217558</v>
+      </c>
+      <c r="T31">
+        <v>0.3047597744740549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.140579</v>
+      </c>
+      <c r="H32">
+        <v>0.281158</v>
+      </c>
+      <c r="I32">
+        <v>0.005016646710384032</v>
+      </c>
+      <c r="J32">
+        <v>0.004098401936938708</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.619567</v>
+      </c>
+      <c r="N32">
+        <v>3.239134</v>
+      </c>
+      <c r="O32">
+        <v>0.05049533395284948</v>
+      </c>
+      <c r="P32">
+        <v>0.04454651624622217</v>
+      </c>
+      <c r="Q32">
+        <v>0.227677109293</v>
+      </c>
+      <c r="R32">
+        <v>0.910708437172</v>
+      </c>
+      <c r="S32">
+        <v>0.0002533172509643055</v>
+      </c>
+      <c r="T32">
+        <v>0.0001825695284673885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.140579</v>
+      </c>
+      <c r="H33">
+        <v>0.281158</v>
+      </c>
+      <c r="I33">
+        <v>0.005016646710384032</v>
+      </c>
+      <c r="J33">
+        <v>0.004098401936938708</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.351459333333333</v>
+      </c>
+      <c r="N33">
+        <v>10.054378</v>
+      </c>
+      <c r="O33">
+        <v>0.1044927800245751</v>
+      </c>
+      <c r="P33">
+        <v>0.1382738450841054</v>
+      </c>
+      <c r="Q33">
+        <v>0.4711448016206667</v>
+      </c>
+      <c r="R33">
+        <v>2.826868809724</v>
+      </c>
+      <c r="S33">
+        <v>0.0005242033611691668</v>
+      </c>
+      <c r="T33">
+        <v>0.0005667017945206605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.140579</v>
+      </c>
+      <c r="H34">
+        <v>0.281158</v>
+      </c>
+      <c r="I34">
+        <v>0.005016646710384032</v>
+      </c>
+      <c r="J34">
+        <v>0.004098401936938708</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.09988799999999999</v>
+      </c>
+      <c r="N34">
+        <v>0.299664</v>
+      </c>
+      <c r="O34">
+        <v>0.003114337299958711</v>
+      </c>
+      <c r="P34">
+        <v>0.004121159311225754</v>
+      </c>
+      <c r="Q34">
+        <v>0.014042155152</v>
+      </c>
+      <c r="R34">
+        <v>0.08425293091200001</v>
+      </c>
+      <c r="S34">
+        <v>1.562352997086416E-05</v>
+      </c>
+      <c r="T34">
+        <v>1.689016730356062E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.140579</v>
+      </c>
+      <c r="H35">
+        <v>0.281158</v>
+      </c>
+      <c r="I35">
+        <v>0.005016646710384032</v>
+      </c>
+      <c r="J35">
+        <v>0.004098401936938708</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.03514233333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.105427</v>
+      </c>
+      <c r="O35">
+        <v>0.001095677954384734</v>
+      </c>
+      <c r="P35">
+        <v>0.00144989542522491</v>
+      </c>
+      <c r="Q35">
+        <v>0.004940274077666668</v>
+      </c>
+      <c r="R35">
+        <v>0.029641644466</v>
+      </c>
+      <c r="S35">
+        <v>5.496629205504483E-06</v>
+      </c>
+      <c r="T35">
+        <v>5.942254219100344E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.140579</v>
+      </c>
+      <c r="H36">
+        <v>0.281158</v>
+      </c>
+      <c r="I36">
+        <v>0.005016646710384032</v>
+      </c>
+      <c r="J36">
+        <v>0.004098401936938708</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>5.079835999999999</v>
+      </c>
+      <c r="N36">
+        <v>15.239508</v>
+      </c>
+      <c r="O36">
+        <v>0.158380613611976</v>
+      </c>
+      <c r="P36">
+        <v>0.2095828671201724</v>
+      </c>
+      <c r="Q36">
+        <v>0.714118265044</v>
+      </c>
+      <c r="R36">
+        <v>4.284709590264</v>
+      </c>
+      <c r="S36">
+        <v>0.0007945395842651237</v>
+      </c>
+      <c r="T36">
+        <v>0.0008589548285544825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.140579</v>
+      </c>
+      <c r="H37">
+        <v>0.281158</v>
+      </c>
+      <c r="I37">
+        <v>0.005016646710384032</v>
+      </c>
+      <c r="J37">
+        <v>0.004098401936938708</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>21.8877045</v>
+      </c>
+      <c r="N37">
+        <v>43.775409</v>
+      </c>
+      <c r="O37">
+        <v>0.6824212571562562</v>
+      </c>
+      <c r="P37">
+        <v>0.6020257168130494</v>
+      </c>
+      <c r="Q37">
+        <v>3.0769516109055</v>
+      </c>
+      <c r="R37">
+        <v>12.307806443622</v>
+      </c>
+      <c r="S37">
+        <v>0.003423466354809069</v>
+      </c>
+      <c r="T37">
+        <v>0.002467343363873516</v>
       </c>
     </row>
   </sheetData>
